--- a/data/input/absenteeism_data_2.xlsx
+++ b/data/input/absenteeism_data_2.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54412</v>
+        <v>10371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alana Duarte</t>
+          <t>Marina das Neves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>7984.51</v>
+        <v>9226.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92464</v>
+        <v>30820</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camila Moreira</t>
+          <t>Kaique Nascimento</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>3206.79</v>
+        <v>4461.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28106</v>
+        <v>30439</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Davi Lucas Carvalho</t>
+          <t>Antônio da Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>4345.63</v>
+        <v>11512.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>38701</v>
+        <v>27850</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Catarina Jesus</t>
+          <t>Felipe Ramos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,167 +581,167 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>11845.44</v>
+        <v>8405.280000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81682</v>
+        <v>28591</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gabrielly Souza</t>
+          <t>Maria Luiza Teixeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45102</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>7355.6</v>
+        <v>3960.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16630</v>
+        <v>64906</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Daniela Santos</t>
+          <t>Carolina da Mota</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>8911.780000000001</v>
+        <v>8690.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>87459</v>
+        <v>7105</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Valentina Ribeiro</t>
+          <t>Enzo Viana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>11025.51</v>
+        <v>11898.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>45912</v>
+        <v>38219</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Bruno da Mota</t>
+          <t>Maysa Farias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>8250.620000000001</v>
+        <v>7235.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21670</v>
+        <v>56642</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mirella da Costa</t>
+          <t>Emilly Ramos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>11302.07</v>
+        <v>3016.55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76316</v>
+        <v>98684</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Noah da Costa</t>
+          <t>Luana da Paz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45095</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>5598.35</v>
+        <v>6439.85</v>
       </c>
     </row>
   </sheetData>
